--- a/raw/bav_deletes/bav_deletes.xlsx
+++ b/raw/bav_deletes/bav_deletes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATTA\Dropbox\Tilburg\Projects\BAV\Shared\analysis_hannes\raw\bav_deletes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanne\Dropbox\Tilburg\Projects\BAV\Shared\analysis_hannes\raw\bav_deletes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,15 +15,15 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$U$480</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$480</definedName>
     <definedName name="allcat_brand_rev_fixed">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="907">
   <si>
     <t>cat_name</t>
   </si>
@@ -1543,9 +1543,6 @@
     <t>delete, main category is furniture polish</t>
   </si>
   <si>
-    <t>delete, brought under Mr Clean then maybe sold?</t>
-  </si>
-  <si>
     <t>keep this</t>
   </si>
   <si>
@@ -1555,9 +1552,6 @@
     <t>delete, it is a stain remover, not detergent</t>
   </si>
   <si>
-    <t>merged into the bold brand by P&amp;G or could eb another product completely</t>
-  </si>
-  <si>
     <t>delete, not consistently covered in this catgeory</t>
   </si>
   <si>
@@ -2738,12 +2732,24 @@
   </si>
   <si>
     <t>old_delete</t>
+  </si>
+  <si>
+    <t>makes also lighters</t>
+  </si>
+  <si>
+    <t>use 2007 on; Since Jose OL seems to not be covered properly pre-2007 (and it did not get dropped out of the set when we narrowed our definition of the catgeory), we should drop it.</t>
+  </si>
+  <si>
+    <t>delete, brought under Mr Clean then maybe sold? Solo is not a laundry detergent. It’s a different type of cleaning product. Should drop it too.</t>
+  </si>
+  <si>
+    <t>merged into the bold brand by P&amp;G or could eb another product completely; Top Job should be dropped. It has very very tiny sales in our data because most of its SKUs are probably in other types of cleaners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2753,12 +2759,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2773,12 +2785,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2794,9 +2807,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2834,7 +2847,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2869,6 +2882,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2904,9 +2934,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3082,92 +3129,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" hidden="1" customWidth="1"/>
+    <col min="5" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54.36328125" customWidth="1"/>
+    <col min="18" max="18" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1" t="s">
         <v>888</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>889</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>890</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>891</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>892</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>893</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>894</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>895</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>896</v>
-      </c>
-      <c r="N1" t="s">
-        <v>897</v>
-      </c>
-      <c r="O1" t="s">
-        <v>898</v>
       </c>
       <c r="P1" t="s">
         <v>461</v>
       </c>
       <c r="Q1" t="s">
+        <v>898</v>
+      </c>
+      <c r="R1" t="s">
+        <v>899</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -3225,12 +3276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3288,12 +3339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -3351,12 +3402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -3414,12 +3465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -3477,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3540,12 +3591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -3585,7 +3636,7 @@
         <v>1010018.2319</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3648,12 +3699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -3711,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3774,12 +3825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -3837,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3900,12 +3951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3945,12 +3996,12 @@
         <v>72906.488700000002</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -3990,12 +4041,12 @@
         <v>170990.87100000001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -4053,12 +4104,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4116,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4179,12 +4230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -4224,7 +4275,7 @@
         <v>22819.501</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4287,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -4350,12 +4401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -4395,12 +4446,12 @@
         <v>58512.453399999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -4440,12 +4491,12 @@
         <v>34662.621800000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -4485,12 +4536,12 @@
         <v>182649.64670000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -4530,12 +4581,12 @@
         <v>377778.22589999897</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -4593,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -4656,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4671,13 +4722,13 @@
         <v>beer_ATZ</v>
       </c>
       <c r="E28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H28">
         <v>42.25</v>
@@ -4719,12 +4770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -4782,12 +4833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -4845,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4908,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -4971,12 +5022,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -5034,12 +5085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -5097,12 +5148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -5142,7 +5193,7 @@
         <v>217557.37220000001</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -5205,12 +5256,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -5250,12 +5301,12 @@
         <v>952661.62199999904</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -5313,12 +5364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -5358,12 +5409,12 @@
         <v>37866.569300000003</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -5403,12 +5454,12 @@
         <v>18262.756099999999</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -5448,12 +5499,12 @@
         <v>73003.047200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
@@ -5511,12 +5562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -5556,7 +5607,7 @@
         <v>97582.383300000001</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -5619,12 +5670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
@@ -5682,12 +5733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -5712,27 +5763,27 @@
         <v>876.75</v>
       </c>
       <c r="K46" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L46" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M46" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N46" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O46" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -5790,12 +5841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -5853,12 +5904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -5898,12 +5949,12 @@
         <v>77093.421499999997</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
@@ -5961,12 +6012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -6006,12 +6057,12 @@
         <v>29898.1986</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
@@ -6069,12 +6120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -6132,12 +6183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -6177,12 +6228,12 @@
         <v>48362.806799999998</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -6222,12 +6273,12 @@
         <v>183217.02590000001</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -6267,12 +6318,12 @@
         <v>99021.288100000194</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C57" t="s">
         <v>36</v>
@@ -6330,12 +6381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -6375,12 +6426,12 @@
         <v>316375.58279999899</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -6420,7 +6471,7 @@
         <v>86804.0845999999</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -6483,12 +6534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
@@ -6546,12 +6597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
@@ -6609,12 +6660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C63" t="s">
         <v>55</v>
@@ -6672,12 +6723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C64" t="s">
         <v>56</v>
@@ -6735,12 +6786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -6798,12 +6849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -6861,12 +6912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -6924,12 +6975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -6987,12 +7038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C69" t="s">
         <v>69</v>
@@ -7034,6 +7085,9 @@
       <c r="O69">
         <v>60</v>
       </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
       <c r="Q69" t="s">
         <v>471</v>
       </c>
@@ -7050,12 +7104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C70" t="s">
         <v>65</v>
@@ -7113,12 +7167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C71" t="s">
         <v>57</v>
@@ -7176,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -7239,12 +7293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -7284,12 +7338,12 @@
         <v>892885.16990000603</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
@@ -7314,22 +7368,25 @@
         <v>8131.0940000000001</v>
       </c>
       <c r="J74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O74" t="s">
-        <v>579</v>
+        <v>577</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
       </c>
       <c r="Q74" t="s">
         <v>473</v>
@@ -7347,12 +7404,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C75" t="s">
         <v>70</v>
@@ -7410,12 +7467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C76" t="s">
         <v>76</v>
@@ -7473,12 +7530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C77" t="s">
         <v>60</v>
@@ -7536,12 +7593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
@@ -7599,12 +7656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -7644,12 +7701,12 @@
         <v>1338048.5342000001</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -7689,7 +7746,7 @@
         <v>16562469.6671992</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -7752,12 +7809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -7797,12 +7854,12 @@
         <v>571556.08460000204</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C83" t="s">
         <v>77</v>
@@ -7860,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>53</v>
       </c>
@@ -7923,12 +7980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -7968,12 +8025,12 @@
         <v>1413558.14350002</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C86" t="s">
         <v>54</v>
@@ -8031,12 +8088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -8076,12 +8133,12 @@
         <v>827588.84210000001</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C88" t="s">
         <v>113</v>
@@ -8139,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -8202,12 +8259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C90" t="s">
         <v>81</v>
@@ -8265,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -8328,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -8391,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -8454,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -8517,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>78</v>
       </c>
@@ -8562,7 +8619,7 @@
         <v>49.2</v>
       </c>
       <c r="O95" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q95" t="s">
         <v>476</v>
@@ -8580,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -8643,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>78</v>
       </c>
@@ -8706,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -8769,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -8832,12 +8889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C100" t="s">
         <v>86</v>
@@ -8895,12 +8952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C101" t="s">
         <v>87</v>
@@ -8958,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>78</v>
       </c>
@@ -9021,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -9084,12 +9141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>78</v>
       </c>
       <c r="B104" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -9129,7 +9186,7 @@
         <v>107364.499999999</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -9192,12 +9249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>78</v>
       </c>
       <c r="B106" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -9237,7 +9294,7 @@
         <v>300887.200000001</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -9300,12 +9357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>78</v>
       </c>
       <c r="B108" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -9345,7 +9402,7 @@
         <v>8265.7000000000007</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -9408,12 +9465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>78</v>
       </c>
       <c r="B110" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -9453,12 +9510,12 @@
         <v>59432.300000000199</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>78</v>
       </c>
       <c r="B111" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C111" t="s">
         <v>94</v>
@@ -9516,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>78</v>
       </c>
@@ -9579,12 +9636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -9624,7 +9681,7 @@
         <v>445813.875</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -9639,16 +9696,16 @@
         <v>coffee_WJDU</v>
       </c>
       <c r="E114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I114">
         <v>387</v>
@@ -9671,6 +9728,9 @@
       <c r="O114">
         <v>164532.26479999899</v>
       </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
       <c r="Q114" t="s">
         <v>478</v>
       </c>
@@ -9687,12 +9747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -9732,12 +9792,12 @@
         <v>98998.324300000095</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C116" t="s">
         <v>120</v>
@@ -9795,12 +9855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
@@ -9840,12 +9900,12 @@
         <v>167519.7825</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
@@ -9885,12 +9945,12 @@
         <v>321808</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
@@ -9932,7 +9992,10 @@
       <c r="O119">
         <v>1030321.831</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1" t="s">
         <v>479</v>
       </c>
       <c r="R119">
@@ -9948,12 +10011,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -10011,12 +10074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C121" t="s">
         <v>141</v>
@@ -10026,7 +10089,7 @@
         <v>coffee_WJEC</v>
       </c>
       <c r="E121" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F121">
         <v>660</v>
@@ -10074,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -10137,12 +10200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C123" t="s">
         <v>142</v>
@@ -10200,12 +10263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>116</v>
       </c>
       <c r="B124" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
@@ -10263,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -10326,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -10389,12 +10452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>116</v>
       </c>
       <c r="B127" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C127" t="s">
         <v>119</v>
@@ -10452,12 +10515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>116</v>
       </c>
       <c r="B128" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
@@ -10497,7 +10560,7 @@
         <v>314750.92320000101</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>116</v>
       </c>
@@ -10560,12 +10623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>116</v>
       </c>
       <c r="B130" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
@@ -10623,12 +10686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>116</v>
       </c>
       <c r="B131" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C131" t="s">
         <v>144</v>
@@ -10638,10 +10701,10 @@
         <v>coffee_WJEW</v>
       </c>
       <c r="E131" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F131" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G131">
         <v>9216.75</v>
@@ -10686,12 +10749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>116</v>
       </c>
       <c r="B132" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C132" t="s">
         <v>149</v>
@@ -10749,12 +10812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>116</v>
       </c>
       <c r="B133" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C133" t="s">
         <v>145</v>
@@ -10796,6 +10859,9 @@
       <c r="O133">
         <v>624075</v>
       </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
       <c r="Q133" t="s">
         <v>484</v>
       </c>
@@ -10812,12 +10878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
@@ -10857,7 +10923,7 @@
         <v>4342523.5976001397</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>116</v>
       </c>
@@ -10890,19 +10956,19 @@
         <v>1660.2393</v>
       </c>
       <c r="K135" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L135" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M135" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N135" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O135" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q135" t="s">
         <v>466</v>
@@ -10920,12 +10986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>116</v>
       </c>
       <c r="B136" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C136" t="s">
         <v>146</v>
@@ -10967,6 +11033,9 @@
       <c r="O136">
         <v>256113.2188</v>
       </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
       <c r="Q136" t="s">
         <v>485</v>
       </c>
@@ -10983,7 +11052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>116</v>
       </c>
@@ -10998,13 +11067,13 @@
         <v>coffee_UTIF</v>
       </c>
       <c r="E137" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F137" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G137" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H137">
         <v>3622.2107999999898</v>
@@ -11030,6 +11099,9 @@
       <c r="O137">
         <v>37912.950300000201</v>
       </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
       <c r="Q137" t="s">
         <v>486</v>
       </c>
@@ -11046,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>116</v>
       </c>
@@ -11109,12 +11181,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>116</v>
       </c>
       <c r="B139" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C139" t="s">
         <v>134</v>
@@ -11124,22 +11196,22 @@
         <v>coffee_RSJ</v>
       </c>
       <c r="E139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K139">
         <v>12829.375</v>
@@ -11172,12 +11244,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>116</v>
       </c>
       <c r="B140" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -11187,22 +11259,22 @@
         <v>coffee_WJFL</v>
       </c>
       <c r="E140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K140">
         <v>267.89440000000002</v>
@@ -11235,12 +11307,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -11298,12 +11370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>116</v>
       </c>
       <c r="B142" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C142" t="s">
         <v>150</v>
@@ -11361,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>116</v>
       </c>
@@ -11424,12 +11496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C144" t="s">
         <v>172</v>
@@ -11439,10 +11511,10 @@
         <v>coldcer_WKFF</v>
       </c>
       <c r="E144" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F144" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G144">
         <v>986.25</v>
@@ -11487,12 +11559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C145" t="s">
         <v>155</v>
@@ -11550,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -11613,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -11676,12 +11748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C148" t="s">
         <v>170</v>
@@ -11739,12 +11811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C149" t="s">
         <v>161</v>
@@ -11802,12 +11874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C150" t="s">
         <v>160</v>
@@ -11865,12 +11937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C151" t="s">
         <v>171</v>
@@ -11928,12 +12000,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C152" t="s">
         <v>152</v>
@@ -11991,12 +12063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C153" t="s">
         <v>162</v>
@@ -12054,12 +12126,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C154" t="s">
         <v>175</v>
@@ -12117,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -12165,7 +12237,7 @@
         <v>3404082.36680002</v>
       </c>
       <c r="Q155" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="R155">
         <v>0</v>
@@ -12180,12 +12252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C156" t="s">
         <v>153</v>
@@ -12243,12 +12315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C157" t="s">
         <v>163</v>
@@ -12306,12 +12378,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C158" t="s">
         <v>164</v>
@@ -12369,12 +12441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>151</v>
       </c>
       <c r="B159" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="2"/>
@@ -12414,12 +12486,12 @@
         <v>4077247.0873000198</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>151</v>
       </c>
       <c r="B160" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="2"/>
@@ -12459,12 +12531,12 @@
         <v>5599121.5058001196</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="2"/>
@@ -12504,12 +12576,12 @@
         <v>17658297.6624</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>151</v>
       </c>
       <c r="B162" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C162" t="s">
         <v>154</v>
@@ -12567,12 +12639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C163" t="s">
         <v>165</v>
@@ -12630,12 +12702,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>151</v>
       </c>
       <c r="B164" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C164" t="s">
         <v>169</v>
@@ -12693,12 +12765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>151</v>
       </c>
       <c r="B165" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C165" t="s">
         <v>166</v>
@@ -12756,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>151</v>
       </c>
@@ -12819,12 +12891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>176</v>
       </c>
       <c r="B167" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="2"/>
@@ -12864,7 +12936,7 @@
         <v>469714</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -12927,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -12942,10 +13014,10 @@
         <v>deod_DMS</v>
       </c>
       <c r="E169" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F169" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G169">
         <v>9261</v>
@@ -12990,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -13053,12 +13125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="2"/>
@@ -13098,7 +13170,7 @@
         <v>134657</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>176</v>
       </c>
@@ -13161,12 +13233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C173" t="s">
         <v>198</v>
@@ -13224,12 +13296,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C174" t="s">
         <v>186</v>
@@ -13287,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -13350,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -13413,12 +13485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C177" t="s">
         <v>187</v>
@@ -13476,12 +13548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="2"/>
@@ -13521,12 +13593,12 @@
         <v>21279</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C179" t="s">
         <v>188</v>
@@ -13584,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>176</v>
       </c>
@@ -13647,12 +13719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C181" t="s">
         <v>193</v>
@@ -13710,12 +13782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C182" t="s">
         <v>179</v>
@@ -13773,12 +13845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>176</v>
       </c>
       <c r="B183" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="2"/>
@@ -13818,7 +13890,7 @@
         <v>608029</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>176</v>
       </c>
@@ -13881,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>176</v>
       </c>
@@ -13896,22 +13968,22 @@
         <v>deod_WAXK</v>
       </c>
       <c r="E185" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F185" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G185" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I185" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J185" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K185">
         <v>25397</v>
@@ -13944,12 +14016,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>201</v>
       </c>
       <c r="B186" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="2"/>
@@ -13977,19 +14049,19 @@
         <v>12708</v>
       </c>
       <c r="L186" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M186" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N186" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O186" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>201</v>
       </c>
@@ -14052,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -14115,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -14178,12 +14250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="2"/>
@@ -14223,12 +14295,12 @@
         <v>43369630</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>201</v>
       </c>
       <c r="B191" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C191" t="s">
         <v>208</v>
@@ -14238,10 +14310,10 @@
         <v>diapers_WKHY</v>
       </c>
       <c r="E191" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F191" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G191">
         <v>17760</v>
@@ -14286,12 +14358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>303</v>
       </c>
       <c r="B192" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C192" t="s">
         <v>321</v>
@@ -14334,7 +14406,7 @@
         <v>1404636.1739999801</v>
       </c>
       <c r="Q192" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="R192">
         <v>0</v>
@@ -14349,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>303</v>
       </c>
@@ -14412,12 +14484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>303</v>
       </c>
       <c r="B194" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C194" t="s">
         <v>306</v>
@@ -14427,19 +14499,19 @@
         <v>pz_di_BFF</v>
       </c>
       <c r="E194" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F194" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G194" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H194" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I194" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J194">
         <v>0.70309999999999995</v>
@@ -14463,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="Q194" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="R194">
         <v>1</v>
@@ -14478,12 +14550,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>303</v>
       </c>
       <c r="B195" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" ref="D195:D258" si="3">IF(LEN(C195)&gt;0, A195&amp;"_"&amp;C195,"")</f>
@@ -14523,12 +14595,12 @@
         <v>1140337.4564</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>303</v>
       </c>
       <c r="B196" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="3"/>
@@ -14568,12 +14640,12 @@
         <v>1154660.60659998</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>303</v>
       </c>
       <c r="B197" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="3"/>
@@ -14613,7 +14685,7 @@
         <v>2201418.9038</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>303</v>
       </c>
@@ -14676,12 +14748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>303</v>
       </c>
       <c r="B199" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="3"/>
@@ -14721,12 +14793,12 @@
         <v>2532140.5799999498</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>303</v>
       </c>
       <c r="B200" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C200" t="s">
         <v>307</v>
@@ -14768,8 +14840,11 @@
       <c r="O200">
         <v>5765.5955000000004</v>
       </c>
+      <c r="P200">
+        <v>1</v>
+      </c>
       <c r="Q200" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="R200">
         <v>1</v>
@@ -14784,12 +14859,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>303</v>
       </c>
       <c r="B201" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C201" t="s">
         <v>308</v>
@@ -14799,22 +14874,22 @@
         <v>pz_di_BFK</v>
       </c>
       <c r="E201" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F201" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G201" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H201" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I201" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J201" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K201">
         <v>20908</v>
@@ -14835,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="Q201" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="R201">
         <v>1</v>
@@ -14850,12 +14925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>303</v>
       </c>
       <c r="B202" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C202" t="s">
         <v>379</v>
@@ -14897,7 +14972,7 @@
       <c r="O202">
         <v>5874024.5332001802</v>
       </c>
-      <c r="Q202" t="s">
+      <c r="Q202" s="1" t="s">
         <v>465</v>
       </c>
       <c r="R202">
@@ -14913,12 +14988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>303</v>
       </c>
       <c r="B203" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C203" t="s">
         <v>322</v>
@@ -14928,16 +15003,16 @@
         <v>pz_di_WKGI</v>
       </c>
       <c r="E203" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F203" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G203" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I203">
         <v>12080</v>
@@ -14958,10 +15033,10 @@
         <v>153.8125</v>
       </c>
       <c r="O203" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q203" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="R203">
         <v>1</v>
@@ -14976,12 +15051,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>303</v>
       </c>
       <c r="B204" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C204" t="s">
         <v>309</v>
@@ -14991,22 +15066,22 @@
         <v>pz_di_BFN</v>
       </c>
       <c r="E204" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F204" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G204" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H204" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I204" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J204" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K204">
         <v>4566086.9222000604</v>
@@ -15042,12 +15117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>303</v>
       </c>
       <c r="B205" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C205" t="s">
         <v>327</v>
@@ -15105,12 +15180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>303</v>
       </c>
       <c r="B206" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="3"/>
@@ -15150,12 +15225,12 @@
         <v>2571496.2379999999</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>303</v>
       </c>
       <c r="B207" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="3"/>
@@ -15195,12 +15270,12 @@
         <v>162796.92329999999</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>303</v>
       </c>
       <c r="B208" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C208" t="s">
         <v>328</v>
@@ -15210,22 +15285,22 @@
         <v>pz_di_YXRQ</v>
       </c>
       <c r="E208" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F208" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G208" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H208" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I208" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J208" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K208">
         <v>688921.89399999997</v>
@@ -15242,8 +15317,11 @@
       <c r="O208">
         <v>631935.9375</v>
       </c>
-      <c r="Q208" t="s">
-        <v>500</v>
+      <c r="P208">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="R208">
         <v>0</v>
@@ -15258,7 +15336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>303</v>
       </c>
@@ -15273,19 +15351,19 @@
         <v>pz_di_YXRC</v>
       </c>
       <c r="E209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J209">
         <v>127294.375</v>
@@ -15305,8 +15383,11 @@
       <c r="O209">
         <v>507834.38000000297</v>
       </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
       <c r="Q209" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="R209">
         <v>1</v>
@@ -15321,12 +15402,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>303</v>
       </c>
       <c r="B210" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C210" t="s">
         <v>324</v>
@@ -15384,34 +15465,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>303</v>
       </c>
       <c r="B211" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E211" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F211" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G211" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I211" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J211" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K211">
         <v>2927715.5786000001</v>
@@ -15432,12 +15513,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>303</v>
       </c>
       <c r="B212" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C212" t="s">
         <v>326</v>
@@ -15495,12 +15576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>303</v>
       </c>
       <c r="B213" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C213" t="s">
         <v>310</v>
@@ -15558,12 +15639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>303</v>
       </c>
       <c r="B214" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C214" t="s">
         <v>325</v>
@@ -15573,7 +15654,7 @@
         <v>pz_di_YPPC</v>
       </c>
       <c r="E214" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F214">
         <v>40562.800000000003</v>
@@ -15600,10 +15681,10 @@
         <v>40594.125</v>
       </c>
       <c r="N214" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O214" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q214" t="s">
         <v>466</v>
@@ -15621,12 +15702,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>303</v>
       </c>
       <c r="B215" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C215" t="s">
         <v>311</v>
@@ -15657,22 +15738,22 @@
         <v>44.875</v>
       </c>
       <c r="L215" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M215" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N215" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O215" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P215">
         <v>1</v>
       </c>
       <c r="Q215" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="R215">
         <v>1</v>
@@ -15687,12 +15768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>303</v>
       </c>
       <c r="B216" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C216" t="s">
         <v>312</v>
@@ -15702,22 +15783,22 @@
         <v>pz_di_BFT</v>
       </c>
       <c r="E216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K216">
         <v>12034.75</v>
@@ -15729,16 +15810,16 @@
         <v>1503.125</v>
       </c>
       <c r="N216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O216" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P216">
         <v>1</v>
       </c>
       <c r="Q216" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="R216">
         <v>1</v>
@@ -15753,12 +15834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>303</v>
       </c>
       <c r="B217" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="3"/>
@@ -15798,12 +15879,12 @@
         <v>10413862.9933003</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>303</v>
       </c>
       <c r="B218" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="3"/>
@@ -15843,12 +15924,12 @@
         <v>4768271.5957000302</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C219" t="s">
         <v>323</v>
@@ -15906,12 +15987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>303</v>
       </c>
       <c r="B220" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C220" t="s">
         <v>313</v>
@@ -15969,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>303</v>
       </c>
@@ -16017,7 +16098,7 @@
         <v>46081.034899999999</v>
       </c>
       <c r="Q221" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="R221">
         <v>0</v>
@@ -16032,34 +16113,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E222" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F222" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G222" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H222" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I222" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J222" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K222">
         <v>1958790.4955</v>
@@ -16077,12 +16158,12 @@
         <v>1428754.75</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>303</v>
       </c>
       <c r="B223" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C223" t="s">
         <v>316</v>
@@ -16140,12 +16221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="3"/>
@@ -16185,12 +16266,12 @@
         <v>1772764.79069999</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>303</v>
       </c>
       <c r="B225" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="3"/>
@@ -16230,12 +16311,12 @@
         <v>3577505.4269999899</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>303</v>
       </c>
       <c r="B226" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C226" t="s">
         <v>320</v>
@@ -16263,25 +16344,25 @@
         <v>23656.25</v>
       </c>
       <c r="K226" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L226" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M226" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N226" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O226" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P226">
         <v>1</v>
       </c>
       <c r="Q226" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="R226">
         <v>0</v>
@@ -16296,12 +16377,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>303</v>
       </c>
       <c r="B227" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C227" t="s">
         <v>317</v>
@@ -16311,13 +16392,13 @@
         <v>pz_di_BGA</v>
       </c>
       <c r="E227" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F227" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G227" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H227">
         <v>387.875</v>
@@ -16332,22 +16413,22 @@
         <v>19.0626</v>
       </c>
       <c r="L227" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M227" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N227" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O227" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P227">
         <v>1</v>
       </c>
       <c r="Q227" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="R227">
         <v>1</v>
@@ -16362,7 +16443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -16386,28 +16467,28 @@
         <v>4596.8027000000002</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O228" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P228">
         <v>1</v>
@@ -16428,34 +16509,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>209</v>
       </c>
       <c r="B229" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E229" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F229" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G229" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H229" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I229" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J229" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K229">
         <v>875429.5</v>
@@ -16476,7 +16557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>209</v>
       </c>
@@ -16491,10 +16572,10 @@
         <v>hhclean_BOL</v>
       </c>
       <c r="E230" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F230" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G230">
         <v>2970.75</v>
@@ -16515,13 +16596,13 @@
         <v>3126.25</v>
       </c>
       <c r="M230" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N230" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O230" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P230">
         <v>1</v>
@@ -16542,7 +16623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>209</v>
       </c>
@@ -16605,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>209</v>
       </c>
@@ -16620,22 +16701,22 @@
         <v>hhclean_BON</v>
       </c>
       <c r="E232" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F232" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G232" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I232" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J232" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K232">
         <v>303860.8125</v>
@@ -16671,12 +16752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>209</v>
       </c>
       <c r="B233" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C233" t="s">
         <v>221</v>
@@ -16686,16 +16767,16 @@
         <v>hhclean_BOP</v>
       </c>
       <c r="E233" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F233" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G233" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I233">
         <v>82.5</v>
@@ -16737,12 +16818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>209</v>
       </c>
       <c r="B234" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="3"/>
@@ -16782,7 +16863,7 @@
         <v>878495.39560000005</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -16845,34 +16926,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>209</v>
       </c>
       <c r="B236" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E236" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F236" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G236" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I236" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J236" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K236">
         <v>58175.753099999798</v>
@@ -16893,12 +16974,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>209</v>
       </c>
       <c r="B237" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C237" t="s">
         <v>224</v>
@@ -16956,34 +17037,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>209</v>
       </c>
       <c r="B238" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E238" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F238" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G238" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I238" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J238" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K238">
         <v>463814.46629999898</v>
@@ -17004,12 +17085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>209</v>
       </c>
       <c r="B239" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="3"/>
@@ -17049,34 +17130,34 @@
         <v>106026.25</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>209</v>
       </c>
       <c r="B240" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E240" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F240" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G240" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H240" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I240" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J240" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K240">
         <v>280891.08750000002</v>
@@ -17097,7 +17178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>209</v>
       </c>
@@ -17160,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>209</v>
       </c>
@@ -17223,12 +17304,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>209</v>
       </c>
       <c r="B243" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C243" t="s">
         <v>214</v>
@@ -17286,12 +17367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>209</v>
       </c>
       <c r="B244" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C244" t="s">
         <v>225</v>
@@ -17333,6 +17414,9 @@
       <c r="O244">
         <v>50782</v>
       </c>
+      <c r="P244">
+        <v>1</v>
+      </c>
       <c r="Q244" t="s">
         <v>504</v>
       </c>
@@ -17349,12 +17433,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>209</v>
       </c>
       <c r="B245" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="3"/>
@@ -17394,12 +17478,12 @@
         <v>208796.40330000001</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>209</v>
       </c>
       <c r="B246" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C246" t="s">
         <v>226</v>
@@ -17457,7 +17541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>209</v>
       </c>
@@ -17472,13 +17556,13 @@
         <v>hhclean_BOX</v>
       </c>
       <c r="E247" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F247" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G247" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H247">
         <v>225</v>
@@ -17493,16 +17577,16 @@
         <v>71767.375599999999</v>
       </c>
       <c r="L247" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M247" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N247" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O247" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -17523,12 +17607,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>209</v>
       </c>
       <c r="B248" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="3"/>
@@ -17568,34 +17652,34 @@
         <v>3088776.7499999902</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>209</v>
       </c>
       <c r="B249" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E249" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F249" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G249" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I249" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J249" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K249">
         <v>1718258.25</v>
@@ -17613,12 +17697,12 @@
         <v>1209871.4775000201</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>209</v>
       </c>
       <c r="B250" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C250" t="s">
         <v>208</v>
@@ -17676,12 +17760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>209</v>
       </c>
       <c r="B251" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C251" t="s">
         <v>229</v>
@@ -17691,22 +17775,22 @@
         <v>hhclean_BOZ</v>
       </c>
       <c r="E251" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F251" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G251" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H251" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I251" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J251" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K251">
         <v>223232.85</v>
@@ -17742,12 +17826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>209</v>
       </c>
       <c r="B252" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C252" t="s">
         <v>230</v>
@@ -17805,34 +17889,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>209</v>
       </c>
       <c r="B253" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E253" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F253" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G253" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H253" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I253" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J253" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K253">
         <v>808446.5625</v>
@@ -17853,7 +17937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>209</v>
       </c>
@@ -17868,22 +17952,22 @@
         <v>hhclean_BPB</v>
       </c>
       <c r="E254" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F254" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G254" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H254" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I254" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J254" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K254">
         <v>1355527.3125</v>
@@ -17919,12 +18003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>209</v>
       </c>
       <c r="B255" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C255" t="s">
         <v>233</v>
@@ -17934,13 +18018,13 @@
         <v>hhclean_BPC</v>
       </c>
       <c r="E255" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F255" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G255" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H255">
         <v>2231.5</v>
@@ -17961,13 +18045,16 @@
         <v>13220.5</v>
       </c>
       <c r="N255" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O255" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q255" t="s">
-        <v>506</v>
+        <v>577</v>
+      </c>
+      <c r="P255">
+        <v>1</v>
+      </c>
+      <c r="Q255" s="2" t="s">
+        <v>905</v>
       </c>
       <c r="R255">
         <v>0</v>
@@ -17982,7 +18069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>209</v>
       </c>
@@ -17997,19 +18084,19 @@
         <v>hhclean_BPD</v>
       </c>
       <c r="E256" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F256" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G256" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H256" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I256" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J256">
         <v>957.7</v>
@@ -18048,34 +18135,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>209</v>
       </c>
       <c r="B257" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E257" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F257" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G257" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H257" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I257" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J257" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K257">
         <v>251008.35920000001</v>
@@ -18096,12 +18183,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>209</v>
       </c>
       <c r="B258" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="3"/>
@@ -18141,12 +18228,12 @@
         <v>106451.2212</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>463</v>
       </c>
       <c r="B259" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C259" t="s">
         <v>389</v>
@@ -18204,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>463</v>
       </c>
@@ -18267,12 +18354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>463</v>
       </c>
       <c r="B261" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C261" t="s">
         <v>289</v>
@@ -18315,7 +18402,7 @@
         <v>3423342.6973999999</v>
       </c>
       <c r="Q261" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="R261">
         <v>1</v>
@@ -18330,12 +18417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>463</v>
       </c>
       <c r="B262" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="4"/>
@@ -18375,12 +18462,12 @@
         <v>6465479.0625</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>463</v>
       </c>
       <c r="B263" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="4"/>
@@ -18420,7 +18507,7 @@
         <v>76730.5625</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>238</v>
       </c>
@@ -18468,7 +18555,7 @@
         <v>2687720.0249999999</v>
       </c>
       <c r="Q264" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R264">
         <v>0</v>
@@ -18483,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>238</v>
       </c>
@@ -18546,12 +18633,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>238</v>
       </c>
       <c r="B266" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C266" t="s">
         <v>245</v>
@@ -18594,7 +18681,7 @@
         <v>16314247.799399899</v>
       </c>
       <c r="Q266" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="R266">
         <v>0</v>
@@ -18609,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>238</v>
       </c>
@@ -18657,7 +18744,7 @@
         <v>10750.875</v>
       </c>
       <c r="Q267" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R267">
         <v>0</v>
@@ -18672,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>238</v>
       </c>
@@ -18735,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>238</v>
       </c>
@@ -18798,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>238</v>
       </c>
@@ -18861,12 +18948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>238</v>
       </c>
       <c r="B271" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C271" t="s">
         <v>254</v>
@@ -18924,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>238</v>
       </c>
@@ -18987,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>238</v>
       </c>
@@ -19050,12 +19137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>238</v>
       </c>
       <c r="B274" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C274" t="s">
         <v>257</v>
@@ -19113,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -19128,16 +19215,16 @@
         <v>laundet_WKIU</v>
       </c>
       <c r="E275" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F275" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G275" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I275">
         <v>302</v>
@@ -19161,7 +19248,7 @@
         <v>23876.875</v>
       </c>
       <c r="Q275" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="R275">
         <v>1</v>
@@ -19176,7 +19263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>238</v>
       </c>
@@ -19191,19 +19278,19 @@
         <v>laundet_WMBA</v>
       </c>
       <c r="E276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J276">
         <v>20920.7249999999</v>
@@ -19215,19 +19302,19 @@
         <v>639.5625</v>
       </c>
       <c r="M276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O276" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P276">
         <v>1</v>
       </c>
       <c r="Q276" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R276">
         <v>0</v>
@@ -19242,12 +19329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>238</v>
       </c>
       <c r="B277" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="4"/>
@@ -19287,7 +19374,7 @@
         <v>8212495.1173999598</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>238</v>
       </c>
@@ -19350,12 +19437,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>238</v>
       </c>
       <c r="B279" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C279" t="s">
         <v>208</v>
@@ -19398,7 +19485,7 @@
         <v>381364.375</v>
       </c>
       <c r="Q279" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R279">
         <v>0</v>
@@ -19413,12 +19500,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>238</v>
       </c>
       <c r="B280" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C280" t="s">
         <v>260</v>
@@ -19428,7 +19515,7 @@
         <v>laundet_BOC</v>
       </c>
       <c r="E280" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F280">
         <v>1290935.5</v>
@@ -19455,13 +19542,16 @@
         <v>93.75</v>
       </c>
       <c r="N280" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O280" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>510</v>
+        <v>577</v>
+      </c>
+      <c r="P280">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="2" t="s">
+        <v>906</v>
       </c>
       <c r="R280">
         <v>0</v>
@@ -19476,12 +19566,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>238</v>
       </c>
       <c r="B281" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="4"/>
@@ -19521,7 +19611,7 @@
         <v>2950916.9323</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>238</v>
       </c>
@@ -19584,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>238</v>
       </c>
@@ -19647,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>238</v>
       </c>
@@ -19710,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>238</v>
       </c>
@@ -19725,25 +19815,25 @@
         <v>laundet_AIY</v>
       </c>
       <c r="E285" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F285" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G285" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I285" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J285" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K285" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L285">
         <v>58</v>
@@ -19761,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="Q285" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="R285">
         <v>0</v>
@@ -19776,12 +19866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>238</v>
       </c>
       <c r="B286" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="4"/>
@@ -19821,12 +19911,12 @@
         <v>9176217.9984000009</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>269</v>
       </c>
       <c r="B287" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C287" t="s">
         <v>270</v>
@@ -19884,12 +19974,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>269</v>
       </c>
       <c r="B288" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="4"/>
@@ -19929,12 +20019,12 @@
         <v>662188.125</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>269</v>
       </c>
       <c r="B289" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C289" t="s">
         <v>271</v>
@@ -19992,12 +20082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>269</v>
       </c>
       <c r="B290" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="4"/>
@@ -20037,12 +20127,12 @@
         <v>752541.9375</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>269</v>
       </c>
       <c r="B291" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="4"/>
@@ -20082,12 +20172,12 @@
         <v>5455489.3646000102</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>269</v>
       </c>
       <c r="B292" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="4"/>
@@ -20127,12 +20217,12 @@
         <v>2890913.4375</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>269</v>
       </c>
       <c r="B293" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C293" t="s">
         <v>272</v>
@@ -20175,7 +20265,7 @@
         <v>2995344.3276</v>
       </c>
       <c r="Q293" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="R293">
         <v>1</v>
@@ -20190,12 +20280,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>269</v>
       </c>
       <c r="B294" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D294" t="str">
         <f t="shared" si="4"/>
@@ -20235,7 +20325,7 @@
         <v>571250.08929999999</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>269</v>
       </c>
@@ -20298,12 +20388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>269</v>
       </c>
       <c r="B296" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D296" t="str">
         <f t="shared" si="4"/>
@@ -20343,7 +20433,7 @@
         <v>4534389</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>269</v>
       </c>
@@ -20406,12 +20496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>269</v>
       </c>
       <c r="B298" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C298" t="s">
         <v>277</v>
@@ -20469,12 +20559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>269</v>
       </c>
       <c r="B299" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="4"/>
@@ -20514,12 +20604,12 @@
         <v>2710321.5</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>278</v>
       </c>
       <c r="B300" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C300" t="s">
         <v>281</v>
@@ -20577,12 +20667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>278</v>
       </c>
       <c r="B301" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="4"/>
@@ -20622,12 +20712,12 @@
         <v>261505.75</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>278</v>
       </c>
       <c r="B302" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D302" t="str">
         <f t="shared" si="4"/>
@@ -20667,12 +20757,12 @@
         <v>573227.5625</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>278</v>
       </c>
       <c r="B303" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="4"/>
@@ -20712,12 +20802,12 @@
         <v>1204906.125</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>278</v>
       </c>
       <c r="B304" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C304" t="s">
         <v>282</v>
@@ -20775,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>278</v>
       </c>
@@ -20823,7 +20913,7 @@
         <v>3533652.875</v>
       </c>
       <c r="Q305" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="R305">
         <v>1</v>
@@ -20838,12 +20928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>278</v>
       </c>
       <c r="B306" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D306" t="str">
         <f t="shared" si="4"/>
@@ -20883,12 +20973,12 @@
         <v>4533107.68</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>283</v>
       </c>
       <c r="B307" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="4"/>
@@ -20928,12 +21018,12 @@
         <v>6289925.125</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>283</v>
       </c>
       <c r="B308" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D308" t="str">
         <f t="shared" si="4"/>
@@ -20973,12 +21063,12 @@
         <v>1856379.5625</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>283</v>
       </c>
       <c r="B309" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="4"/>
@@ -21018,12 +21108,12 @@
         <v>10076562.75</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>283</v>
       </c>
       <c r="B310" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D310" t="str">
         <f t="shared" si="4"/>
@@ -21063,12 +21153,12 @@
         <v>6284351.125</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>283</v>
       </c>
       <c r="B311" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D311" t="str">
         <f t="shared" si="4"/>
@@ -21108,12 +21198,12 @@
         <v>14574672.25</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>283</v>
       </c>
       <c r="B312" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D312" t="str">
         <f t="shared" si="4"/>
@@ -21153,12 +21243,12 @@
         <v>19564752.25</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>283</v>
       </c>
       <c r="B313" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C313" t="s">
         <v>286</v>
@@ -21201,7 +21291,7 @@
         <v>18286484</v>
       </c>
       <c r="Q313" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="R313">
         <v>0</v>
@@ -21216,12 +21306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>283</v>
       </c>
       <c r="B314" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D314" t="str">
         <f t="shared" si="4"/>
@@ -21261,12 +21351,12 @@
         <v>8858149</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>283</v>
       </c>
       <c r="B315" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D315" t="str">
         <f t="shared" si="4"/>
@@ -21306,12 +21396,12 @@
         <v>4263031.25</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>283</v>
       </c>
       <c r="B316" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D316" t="str">
         <f t="shared" si="4"/>
@@ -21351,12 +21441,12 @@
         <v>6446370</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>283</v>
       </c>
       <c r="B317" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D317" t="str">
         <f t="shared" si="4"/>
@@ -21396,12 +21486,12 @@
         <v>4571260</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>283</v>
       </c>
       <c r="B318" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D318" t="str">
         <f t="shared" si="4"/>
@@ -21441,12 +21531,12 @@
         <v>1455592.5</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>283</v>
       </c>
       <c r="B319" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C319" t="s">
         <v>285</v>
@@ -21504,12 +21594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>283</v>
       </c>
       <c r="B320" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D320" t="str">
         <f t="shared" si="4"/>
@@ -21549,12 +21639,12 @@
         <v>5843575.5</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>283</v>
       </c>
       <c r="B321" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D321" t="str">
         <f t="shared" si="4"/>
@@ -21594,12 +21684,12 @@
         <v>885173460.375</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>283</v>
       </c>
       <c r="B322" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D322" t="str">
         <f t="shared" si="4"/>
@@ -21639,12 +21729,12 @@
         <v>7126800.5</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>283</v>
       </c>
       <c r="B323" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D323" t="str">
         <f t="shared" ref="D323:D386" si="5">IF(LEN(C323)&gt;0, A323&amp;"_"&amp;C323,"")</f>
@@ -21684,12 +21774,12 @@
         <v>3342903.5</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>283</v>
       </c>
       <c r="B324" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C324" t="s">
         <v>284</v>
@@ -21699,13 +21789,13 @@
         <v>milk_TSZ</v>
       </c>
       <c r="E324" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F324" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G324" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H324">
         <v>45080</v>
@@ -21732,7 +21822,7 @@
         <v>5225056</v>
       </c>
       <c r="Q324" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="R324">
         <v>1</v>
@@ -21747,12 +21837,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>283</v>
       </c>
       <c r="B325" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="5"/>
@@ -21792,12 +21882,12 @@
         <v>13040465.625</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>462</v>
       </c>
       <c r="B326" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C326" t="s">
         <v>290</v>
@@ -21855,12 +21945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>462</v>
       </c>
       <c r="B327" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C327" t="s">
         <v>291</v>
@@ -21918,12 +22008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>462</v>
       </c>
       <c r="B328" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C328" t="s">
         <v>292</v>
@@ -21981,7 +22071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>462</v>
       </c>
@@ -22029,7 +22119,7 @@
         <v>6263.9467999999997</v>
       </c>
       <c r="Q329" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="R329">
         <v>1</v>
@@ -22044,12 +22134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>462</v>
       </c>
       <c r="B330" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C330" t="s">
         <v>282</v>
@@ -22092,7 +22182,7 @@
         <v>46193.951999999699</v>
       </c>
       <c r="Q330" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="R330">
         <v>1</v>
@@ -22107,12 +22197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>462</v>
       </c>
       <c r="B331" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D331" t="str">
         <f t="shared" si="5"/>
@@ -22152,12 +22242,12 @@
         <v>59450.200199999701</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>462</v>
       </c>
       <c r="B332" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D332" t="str">
         <f t="shared" si="5"/>
@@ -22197,12 +22287,12 @@
         <v>32856.75</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>462</v>
       </c>
       <c r="B333" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D333" t="str">
         <f t="shared" si="5"/>
@@ -22242,12 +22332,12 @@
         <v>41473.836500000099</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>462</v>
       </c>
       <c r="B334" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D334" t="str">
         <f t="shared" si="5"/>
@@ -22287,12 +22377,12 @@
         <v>164983.05809999999</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>462</v>
       </c>
       <c r="B335" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D335" t="str">
         <f t="shared" si="5"/>
@@ -22332,12 +22422,12 @@
         <v>2757340.4942000001</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>462</v>
       </c>
       <c r="B336" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D336" t="str">
         <f t="shared" si="5"/>
@@ -22377,12 +22467,12 @@
         <v>43626.1385999997</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>462</v>
       </c>
       <c r="B337" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="5"/>
@@ -22422,7 +22512,7 @@
         <v>42824.874000000003</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>388</v>
       </c>
@@ -22485,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>388</v>
       </c>
@@ -22500,7 +22590,7 @@
         <v>spagsauc_EOB</v>
       </c>
       <c r="E339" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F339">
         <v>2401648.25</v>
@@ -22533,7 +22623,7 @@
         <v>3300386.1875</v>
       </c>
       <c r="Q339" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R339">
         <v>1</v>
@@ -22548,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>388</v>
       </c>
@@ -22590,13 +22680,13 @@
         <v>2320.5</v>
       </c>
       <c r="N340" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O340" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q340" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="R340">
         <v>1</v>
@@ -22611,7 +22701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>388</v>
       </c>
@@ -22674,12 +22764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>388</v>
       </c>
       <c r="B342" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C342" t="s">
         <v>400</v>
@@ -22689,16 +22779,16 @@
         <v>spagsauc_BIJ</v>
       </c>
       <c r="E342" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F342" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G342" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H342" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I342">
         <v>2586.6060000000002</v>
@@ -22722,7 +22812,7 @@
         <v>22498.82</v>
       </c>
       <c r="Q342" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="R342">
         <v>1</v>
@@ -22737,12 +22827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>388</v>
       </c>
       <c r="B343" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C343" t="s">
         <v>389</v>
@@ -22785,7 +22875,7 @@
         <v>838153.78719999897</v>
       </c>
       <c r="Q343" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="R343">
         <v>1</v>
@@ -22800,12 +22890,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>388</v>
       </c>
       <c r="B344" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C344" t="s">
         <v>403</v>
@@ -22848,7 +22938,7 @@
         <v>308985.9375</v>
       </c>
       <c r="Q344" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="R344">
         <v>0</v>
@@ -22863,12 +22953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>388</v>
       </c>
       <c r="B345" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C345" t="s">
         <v>405</v>
@@ -22926,12 +23016,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>388</v>
       </c>
       <c r="B346" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C346" t="s">
         <v>379</v>
@@ -22971,10 +23061,10 @@
         <v>3547.375</v>
       </c>
       <c r="O346" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q346" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="R346">
         <v>1</v>
@@ -22989,12 +23079,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>388</v>
       </c>
       <c r="B347" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C347" t="s">
         <v>289</v>
@@ -23037,7 +23127,7 @@
         <v>7354618.1247000797</v>
       </c>
       <c r="Q347" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="R347">
         <v>1</v>
@@ -23052,12 +23142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>388</v>
       </c>
       <c r="B348" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C348" t="s">
         <v>404</v>
@@ -23100,7 +23190,7 @@
         <v>1958484.1094</v>
       </c>
       <c r="Q348" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R348">
         <v>1</v>
@@ -23115,7 +23205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>388</v>
       </c>
@@ -23178,12 +23268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>388</v>
       </c>
       <c r="B350" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D350" t="str">
         <f t="shared" si="5"/>
@@ -23223,7 +23313,7 @@
         <v>8188949.0383000104</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>388</v>
       </c>
@@ -23271,7 +23361,7 @@
         <v>132205.51310000001</v>
       </c>
       <c r="Q351" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="R351">
         <v>1</v>
@@ -23286,7 +23376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>388</v>
       </c>
@@ -23349,12 +23439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>294</v>
       </c>
       <c r="B353" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="5"/>
@@ -23394,7 +23484,7 @@
         <v>243693.625</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>294</v>
       </c>
@@ -23442,7 +23532,7 @@
         <v>7066227.4065000499</v>
       </c>
       <c r="Q354" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="R354">
         <v>0</v>
@@ -23457,12 +23547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>294</v>
       </c>
       <c r="B355" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D355" t="str">
         <f t="shared" si="5"/>
@@ -23502,12 +23592,12 @@
         <v>193544.5</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>294</v>
       </c>
       <c r="B356" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C356" t="s">
         <v>297</v>
@@ -23538,19 +23628,19 @@
         <v>351561.95</v>
       </c>
       <c r="L356" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M356" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N356" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O356" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q356" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R356">
         <v>0</v>
@@ -23565,7 +23655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>294</v>
       </c>
@@ -23613,7 +23703,7 @@
         <v>12370.6875</v>
       </c>
       <c r="Q357" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="R357">
         <v>1</v>
@@ -23628,12 +23718,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>294</v>
       </c>
       <c r="B358" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D358" t="str">
         <f t="shared" si="5"/>
@@ -23673,12 +23763,12 @@
         <v>7093393.8878000099</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>294</v>
       </c>
       <c r="B359" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="5"/>
@@ -23718,7 +23808,7 @@
         <v>77873.625</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>294</v>
       </c>
@@ -23781,28 +23871,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>294</v>
       </c>
       <c r="B361" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D361" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E361" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F361" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G361" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I361">
         <v>29208</v>
@@ -23826,12 +23916,12 @@
         <v>425123.625</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>294</v>
       </c>
       <c r="B362" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C362" t="s">
         <v>300</v>
@@ -23874,7 +23964,7 @@
         <v>541610.25</v>
       </c>
       <c r="Q362" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="R362">
         <v>1</v>
@@ -23889,12 +23979,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>294</v>
       </c>
       <c r="B363" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D363" t="str">
         <f t="shared" si="5"/>
@@ -23934,7 +24024,7 @@
         <v>425828</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>329</v>
       </c>
@@ -23982,10 +24072,10 @@
         <v>6249024</v>
       </c>
       <c r="Q364" t="s">
-        <v>466</v>
+        <v>903</v>
       </c>
       <c r="R364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S364">
         <v>0</v>
@@ -23997,7 +24087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>329</v>
       </c>
@@ -24045,7 +24135,7 @@
         <v>13856158</v>
       </c>
       <c r="Q365" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R365">
         <v>0</v>
@@ -24060,12 +24150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>329</v>
       </c>
       <c r="B366" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D366" t="str">
         <f t="shared" si="5"/>
@@ -24105,12 +24195,12 @@
         <v>561127</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>329</v>
       </c>
       <c r="B367" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D367" t="str">
         <f t="shared" si="5"/>
@@ -24150,7 +24240,7 @@
         <v>6637106</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>329</v>
       </c>
@@ -24213,12 +24303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>334</v>
       </c>
       <c r="B369" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D369" t="str">
         <f t="shared" si="5"/>
@@ -24258,7 +24348,7 @@
         <v>1187759.95</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>334</v>
       </c>
@@ -24321,12 +24411,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>334</v>
       </c>
       <c r="B371" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D371" t="str">
         <f t="shared" si="5"/>
@@ -24366,12 +24456,12 @@
         <v>433733.47120000003</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>334</v>
       </c>
       <c r="B372" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D372" t="str">
         <f t="shared" si="5"/>
@@ -24411,12 +24501,12 @@
         <v>1193226.8713999901</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>334</v>
       </c>
       <c r="B373" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D373" t="str">
         <f t="shared" si="5"/>
@@ -24456,12 +24546,12 @@
         <v>791533.57119999698</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>334</v>
       </c>
       <c r="B374" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D374" t="str">
         <f t="shared" si="5"/>
@@ -24501,12 +24591,12 @@
         <v>1316936.5845999999</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>334</v>
       </c>
       <c r="B375" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C375" t="s">
         <v>339</v>
@@ -24564,12 +24654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>334</v>
       </c>
       <c r="B376" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D376" t="str">
         <f t="shared" si="5"/>
@@ -24609,12 +24699,12 @@
         <v>1847511.6875</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>334</v>
       </c>
       <c r="B377" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C377" t="s">
         <v>344</v>
@@ -24624,7 +24714,7 @@
         <v>saltsnck_WACC</v>
       </c>
       <c r="E377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F377">
         <v>1149.3498999999999</v>
@@ -24639,25 +24729,25 @@
         <v>81.261399999999995</v>
       </c>
       <c r="J377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q377" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="R377">
         <v>0</v>
@@ -24672,12 +24762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>334</v>
       </c>
       <c r="B378" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D378" t="str">
         <f t="shared" si="5"/>
@@ -24717,12 +24807,12 @@
         <v>313167.58289999998</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>334</v>
       </c>
       <c r="B379" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D379" t="str">
         <f t="shared" si="5"/>
@@ -24762,7 +24852,7 @@
         <v>7605456.3801000901</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>334</v>
       </c>
@@ -24825,12 +24915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>334</v>
       </c>
       <c r="B381" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D381" t="str">
         <f t="shared" si="5"/>
@@ -24870,12 +24960,12 @@
         <v>2570304.1875</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>334</v>
       </c>
       <c r="B382" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C382" t="s">
         <v>345</v>
@@ -24933,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>334</v>
       </c>
@@ -24996,12 +25086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>334</v>
       </c>
       <c r="B384" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D384" t="str">
         <f t="shared" si="5"/>
@@ -25041,7 +25131,7 @@
         <v>3000370.7248000102</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>334</v>
       </c>
@@ -25104,12 +25194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>346</v>
       </c>
       <c r="B386" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D386" t="str">
         <f t="shared" si="5"/>
@@ -25149,12 +25239,12 @@
         <v>1566008.4375</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>346</v>
       </c>
       <c r="B387" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D387" t="str">
         <f t="shared" ref="D387:D450" si="6">IF(LEN(C387)&gt;0, A387&amp;"_"&amp;C387,"")</f>
@@ -25194,7 +25284,7 @@
         <v>235923.93620000401</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>346</v>
       </c>
@@ -25242,7 +25332,7 @@
         <v>245.63919999999999</v>
       </c>
       <c r="Q388" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="R388">
         <v>1</v>
@@ -25257,7 +25347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>346</v>
       </c>
@@ -25305,10 +25395,10 @@
         <v>1265.5</v>
       </c>
       <c r="Q389" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="R389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S389">
         <v>0</v>
@@ -25320,22 +25410,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>346</v>
       </c>
       <c r="B390" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D390" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E390" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F390" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G390">
         <v>414812.73019999999</v>
@@ -25365,7 +25455,7 @@
         <v>302431.25160000002</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>346</v>
       </c>
@@ -25428,7 +25518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>346</v>
       </c>
@@ -25473,10 +25563,10 @@
         <v>2467.9375</v>
       </c>
       <c r="O392" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q392" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="R392">
         <v>0</v>
@@ -25491,22 +25581,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>346</v>
       </c>
       <c r="B393" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D393" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E393" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F393" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G393">
         <v>384912.9375</v>
@@ -25536,12 +25626,12 @@
         <v>733564.71059998102</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>346</v>
       </c>
       <c r="B394" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C394" t="s">
         <v>350</v>
@@ -25599,12 +25689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>346</v>
       </c>
       <c r="B395" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C395" t="s">
         <v>362</v>
@@ -25662,12 +25752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>346</v>
       </c>
       <c r="B396" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C396" t="s">
         <v>363</v>
@@ -25710,7 +25800,7 @@
         <v>146.47499999999999</v>
       </c>
       <c r="Q396" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="R396">
         <v>1</v>
@@ -25725,12 +25815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>346</v>
       </c>
       <c r="B397" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C397" t="s">
         <v>347</v>
@@ -25773,7 +25863,7 @@
         <v>346914.95219999697</v>
       </c>
       <c r="Q397" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="R397">
         <v>1</v>
@@ -25788,12 +25878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>346</v>
       </c>
       <c r="B398" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D398" t="str">
         <f t="shared" si="6"/>
@@ -25833,7 +25923,7 @@
         <v>81469.692400001397</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>346</v>
       </c>
@@ -25881,7 +25971,7 @@
         <v>66616.511900000303</v>
       </c>
       <c r="Q399" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R399">
         <v>1</v>
@@ -25896,7 +25986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>346</v>
       </c>
@@ -25959,12 +26049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>346</v>
       </c>
       <c r="B401" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C401" t="s">
         <v>366</v>
@@ -26022,7 +26112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>346</v>
       </c>
@@ -26070,7 +26160,7 @@
         <v>296800.89980000001</v>
       </c>
       <c r="Q402" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="R402">
         <v>0</v>
@@ -26085,7 +26175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>346</v>
       </c>
@@ -26133,7 +26223,7 @@
         <v>41376.975199999702</v>
       </c>
       <c r="Q403" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="R403">
         <v>0</v>
@@ -26148,12 +26238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>346</v>
       </c>
       <c r="B404" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D404" t="str">
         <f t="shared" si="6"/>
@@ -26193,12 +26283,12 @@
         <v>375707.79609999497</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>346</v>
       </c>
       <c r="B405" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C405" t="s">
         <v>371</v>
@@ -26226,22 +26316,22 @@
         <v>52.6875</v>
       </c>
       <c r="K405" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L405" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M405" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N405" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O405" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q405" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R405">
         <v>0</v>
@@ -26256,12 +26346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>346</v>
       </c>
       <c r="B406" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D406" t="str">
         <f t="shared" si="6"/>
@@ -26301,12 +26391,12 @@
         <v>88297.359400000001</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>346</v>
       </c>
       <c r="B407" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D407" t="str">
         <f t="shared" si="6"/>
@@ -26346,12 +26436,12 @@
         <v>39135.854699999698</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>346</v>
       </c>
       <c r="B408" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C408" t="s">
         <v>374</v>
@@ -26379,22 +26469,25 @@
         <v>222.5</v>
       </c>
       <c r="K408" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L408" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M408" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N408" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O408" t="s">
-        <v>579</v>
+        <v>577</v>
+      </c>
+      <c r="P408">
+        <v>1</v>
       </c>
       <c r="Q408" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="R408">
         <v>1</v>
@@ -26409,7 +26502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>346</v>
       </c>
@@ -26472,12 +26565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>346</v>
       </c>
       <c r="B410" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D410" t="str">
         <f t="shared" si="6"/>
@@ -26508,21 +26601,21 @@
         <v>543.72119999999995</v>
       </c>
       <c r="M410" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N410" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O410" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>346</v>
       </c>
       <c r="B411" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D411" t="str">
         <f t="shared" si="6"/>
@@ -26562,12 +26655,12 @@
         <v>1082664.5</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>346</v>
       </c>
       <c r="B412" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C412" t="s">
         <v>353</v>
@@ -26586,31 +26679,31 @@
         <v>1202.077</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O412" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q412" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="R412">
         <v>0</v>
@@ -26625,7 +26718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>346</v>
       </c>
@@ -26652,28 +26745,28 @@
         <v>143.85400000000001</v>
       </c>
       <c r="I413" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J413" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K413" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L413" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M413" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N413" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O413" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q413" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="R413">
         <v>1</v>
@@ -26688,12 +26781,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>346</v>
       </c>
       <c r="B414" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D414" t="str">
         <f t="shared" si="6"/>
@@ -26733,12 +26826,12 @@
         <v>351845.51280000003</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>375</v>
       </c>
       <c r="B415" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C415" t="s">
         <v>383</v>
@@ -26781,7 +26874,7 @@
         <v>549417.83869998599</v>
       </c>
       <c r="Q415" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="R415">
         <v>1</v>
@@ -26796,12 +26889,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>375</v>
       </c>
       <c r="B416" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C416" t="s">
         <v>376</v>
@@ -26844,7 +26937,7 @@
         <v>46195792.562394202</v>
       </c>
       <c r="Q416" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R416">
         <v>0</v>
@@ -26859,12 +26952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>375</v>
       </c>
       <c r="B417" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C417" t="s">
         <v>382</v>
@@ -26874,22 +26967,22 @@
         <v>soup_WGCR</v>
       </c>
       <c r="E417" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F417" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G417" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H417" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I417" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J417" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K417">
         <v>4941376.2595000099</v>
@@ -26925,12 +27018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>375</v>
       </c>
       <c r="B418" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C418" t="s">
         <v>384</v>
@@ -26988,12 +27081,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>375</v>
       </c>
       <c r="B419" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C419" t="s">
         <v>379</v>
@@ -27036,7 +27129,7 @@
         <v>1918156</v>
       </c>
       <c r="Q419" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="R419">
         <v>1</v>
@@ -27051,7 +27144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>375</v>
       </c>
@@ -27090,13 +27183,13 @@
         <v>746.41250000000002</v>
       </c>
       <c r="M420" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N420" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O420" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P420">
         <v>1</v>
@@ -27117,12 +27210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>375</v>
       </c>
       <c r="B421" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C421" t="s">
         <v>385</v>
@@ -27132,31 +27225,31 @@
         <v>soup_WMBB</v>
       </c>
       <c r="E421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M421" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N421">
         <v>4486</v>
@@ -27165,7 +27258,7 @@
         <v>21678</v>
       </c>
       <c r="Q421" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="R421">
         <v>0</v>
@@ -27180,12 +27273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>375</v>
       </c>
       <c r="B422" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D422" t="str">
         <f t="shared" si="6"/>
@@ -27225,7 +27318,7 @@
         <v>20179970.927299701</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>375</v>
       </c>
@@ -27288,12 +27381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>375</v>
       </c>
       <c r="B424" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C424" t="s">
         <v>387</v>
@@ -27303,22 +27396,22 @@
         <v>soup_YPRM</v>
       </c>
       <c r="E424" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F424" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G424" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I424" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J424" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K424">
         <v>12622868.104000101</v>
@@ -27354,12 +27447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>375</v>
       </c>
       <c r="B425" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C425" t="s">
         <v>386</v>
@@ -27402,7 +27495,7 @@
         <v>492608.870999999</v>
       </c>
       <c r="Q425" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="R425">
         <v>1</v>
@@ -27417,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>406</v>
       </c>
@@ -27480,12 +27573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>406</v>
       </c>
       <c r="B427" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D427" t="str">
         <f t="shared" si="6"/>
@@ -27525,7 +27618,7 @@
         <v>841308.09999999905</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>406</v>
       </c>
@@ -27540,22 +27633,22 @@
         <v>sugarsub_AIN</v>
       </c>
       <c r="E428" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F428" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G428" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I428" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J428" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K428">
         <v>756.03</v>
@@ -27573,7 +27666,7 @@
         <v>1168.71</v>
       </c>
       <c r="Q428" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R428">
         <v>1</v>
@@ -27588,12 +27681,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>406</v>
       </c>
       <c r="B429" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D429" t="str">
         <f t="shared" si="6"/>
@@ -27633,7 +27726,7 @@
         <v>4975154.2499999804</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>406</v>
       </c>
@@ -27681,7 +27774,7 @@
         <v>10698052.439999999</v>
       </c>
       <c r="Q430" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="R430">
         <v>1</v>
@@ -27696,12 +27789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>406</v>
       </c>
       <c r="B431" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D431" t="str">
         <f t="shared" si="6"/>
@@ -27741,12 +27834,12 @@
         <v>84192.6</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>406</v>
       </c>
       <c r="B432" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D432" t="str">
         <f t="shared" si="6"/>
@@ -27786,12 +27879,12 @@
         <v>8214.5</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>406</v>
       </c>
       <c r="B433" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C433" t="s">
         <v>412</v>
@@ -27849,37 +27942,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>406</v>
       </c>
       <c r="B434" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D434" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E434" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F434" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G434" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H434" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I434" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J434" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K434" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L434">
         <v>123519.2</v>
@@ -27894,12 +27987,12 @@
         <v>4019501.1000000201</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>406</v>
       </c>
       <c r="B435" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C435" t="s">
         <v>409</v>
@@ -27918,31 +28011,31 @@
         <v>2660</v>
       </c>
       <c r="H435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q435" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R435">
         <v>1</v>
@@ -27957,12 +28050,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>415</v>
       </c>
       <c r="B436" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D436" t="str">
         <f t="shared" si="6"/>
@@ -28002,7 +28095,7 @@
         <v>38045745</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>415</v>
       </c>
@@ -28065,7 +28158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>415</v>
       </c>
@@ -28128,12 +28221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>415</v>
       </c>
       <c r="B439" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D439" t="str">
         <f t="shared" si="6"/>
@@ -28173,12 +28266,12 @@
         <v>7344005</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>415</v>
       </c>
       <c r="B440" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D440" t="str">
         <f t="shared" si="6"/>
@@ -28218,7 +28311,7 @@
         <v>3486042</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>415</v>
       </c>
@@ -28281,12 +28374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>415</v>
       </c>
       <c r="B442" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D442" t="str">
         <f t="shared" si="6"/>
@@ -28326,12 +28419,12 @@
         <v>77888713</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>415</v>
       </c>
       <c r="B443" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C443" t="s">
         <v>293</v>
@@ -28389,12 +28482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>415</v>
       </c>
       <c r="B444" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C444" t="s">
         <v>208</v>
@@ -28436,11 +28529,14 @@
       <c r="O444">
         <v>377829</v>
       </c>
+      <c r="P444">
+        <v>0</v>
+      </c>
       <c r="Q444" t="s">
         <v>461</v>
       </c>
       <c r="R444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S444">
         <v>1</v>
@@ -28452,12 +28548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>415</v>
       </c>
       <c r="B445" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D445" t="str">
         <f t="shared" si="6"/>
@@ -28497,7 +28593,7 @@
         <v>12432</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>422</v>
       </c>
@@ -28560,12 +28656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>422</v>
       </c>
       <c r="B447" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C447" t="s">
         <v>423</v>
@@ -28623,12 +28719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>422</v>
       </c>
       <c r="B448" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C448" t="s">
         <v>442</v>
@@ -28671,7 +28767,7 @@
         <v>237392.1514</v>
       </c>
       <c r="Q448" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="R448">
         <v>0</v>
@@ -28686,12 +28782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>422</v>
       </c>
       <c r="B449" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C449" t="s">
         <v>443</v>
@@ -28701,10 +28797,10 @@
         <v>toothpa_TFS</v>
       </c>
       <c r="E449" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F449" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G449">
         <v>526.06560000000002</v>
@@ -28728,16 +28824,16 @@
         <v>52</v>
       </c>
       <c r="N449" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O449" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P449">
         <v>1</v>
       </c>
       <c r="Q449" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="R449">
         <v>1</v>
@@ -28752,12 +28848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>422</v>
       </c>
       <c r="B450" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C450" t="s">
         <v>424</v>
@@ -28815,7 +28911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>422</v>
       </c>
@@ -28878,7 +28974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>422</v>
       </c>
@@ -28941,12 +29037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>422</v>
       </c>
       <c r="B453" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C453" t="s">
         <v>446</v>
@@ -28988,8 +29084,11 @@
       <c r="O453">
         <v>5612.8125</v>
       </c>
+      <c r="P453">
+        <v>1</v>
+      </c>
       <c r="Q453" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="R453">
         <v>0</v>
@@ -29004,7 +29103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>422</v>
       </c>
@@ -29051,10 +29150,13 @@
       <c r="O454">
         <v>5539.6711000000096</v>
       </c>
+      <c r="P454">
+        <v>1</v>
+      </c>
       <c r="Q454" t="s">
-        <v>558</v>
-      </c>
-      <c r="R454">
+        <v>556</v>
+      </c>
+      <c r="R454" s="1">
         <v>0</v>
       </c>
       <c r="S454">
@@ -29067,7 +29169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>422</v>
       </c>
@@ -29115,7 +29217,7 @@
         <v>30234.071899999799</v>
       </c>
       <c r="Q455" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R455">
         <v>0</v>
@@ -29130,12 +29232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>422</v>
       </c>
       <c r="B456" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C456" t="s">
         <v>433</v>
@@ -29177,8 +29279,11 @@
       <c r="O456">
         <v>19100.949999999801</v>
       </c>
+      <c r="P456">
+        <v>0</v>
+      </c>
       <c r="Q456" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="R456">
         <v>1</v>
@@ -29193,12 +29298,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>422</v>
       </c>
       <c r="B457" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D457" t="str">
         <f t="shared" si="7"/>
@@ -29238,12 +29343,12 @@
         <v>109386.075</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>422</v>
       </c>
       <c r="B458" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D458" t="str">
         <f t="shared" si="7"/>
@@ -29283,7 +29388,7 @@
         <v>26934.0096999999</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>422</v>
       </c>
@@ -29325,13 +29430,16 @@
         <v>353.32499999999999</v>
       </c>
       <c r="N459" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O459" t="s">
-        <v>579</v>
+        <v>577</v>
+      </c>
+      <c r="P459">
+        <v>0</v>
       </c>
       <c r="Q459" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R459">
         <v>1</v>
@@ -29346,12 +29454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>422</v>
       </c>
       <c r="B460" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C460" t="s">
         <v>441</v>
@@ -29409,7 +29517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>422</v>
       </c>
@@ -29472,7 +29580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>422</v>
       </c>
@@ -29487,28 +29595,28 @@
         <v>toothpa_WKIC</v>
       </c>
       <c r="E462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M462">
         <v>1.2000999999999999</v>
@@ -29523,7 +29631,7 @@
         <v>1</v>
       </c>
       <c r="Q462" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="R462">
         <v>0</v>
@@ -29538,12 +29646,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>422</v>
       </c>
       <c r="B463" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C463" t="s">
         <v>447</v>
@@ -29601,12 +29709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>422</v>
       </c>
       <c r="B464" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C464" t="s">
         <v>438</v>
@@ -29649,7 +29757,7 @@
         <v>49600.875</v>
       </c>
       <c r="Q464" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="R464">
         <v>0</v>
@@ -29664,12 +29772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>448</v>
       </c>
       <c r="B465" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D465" t="str">
         <f t="shared" si="7"/>
@@ -29709,34 +29817,34 @@
         <v>2779737.5</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>448</v>
       </c>
       <c r="B466" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D466" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E466" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F466" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G466" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I466" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J466" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K466">
         <v>1682.75</v>
@@ -29754,12 +29862,12 @@
         <v>13307819.75</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>448</v>
       </c>
       <c r="B467" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C467" t="s">
         <v>453</v>
@@ -29799,10 +29907,10 @@
         <v>87386.625</v>
       </c>
       <c r="O467" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q467" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R467">
         <v>0</v>
@@ -29817,12 +29925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>448</v>
       </c>
       <c r="B468" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C468" t="s">
         <v>454</v>
@@ -29880,7 +29988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>448</v>
       </c>
@@ -29943,12 +30051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>448</v>
       </c>
       <c r="B470" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C470" t="s">
         <v>456</v>
@@ -30006,12 +30114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>448</v>
       </c>
       <c r="B471" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C471" t="s">
         <v>457</v>
@@ -30054,7 +30162,7 @@
         <v>110751</v>
       </c>
       <c r="Q471" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="R471">
         <v>0</v>
@@ -30069,12 +30177,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>448</v>
       </c>
       <c r="B472" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D472" t="str">
         <f t="shared" si="7"/>
@@ -30114,12 +30222,12 @@
         <v>2816801.8739999998</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>448</v>
       </c>
       <c r="B473" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D473" t="str">
         <f t="shared" si="7"/>
@@ -30159,12 +30267,12 @@
         <v>22022748.884399999</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>448</v>
       </c>
       <c r="B474" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C474" t="s">
         <v>458</v>
@@ -30198,16 +30306,16 @@
         <v>3800.7</v>
       </c>
       <c r="M474" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N474" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O474" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q474" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="R474">
         <v>0</v>
@@ -30222,12 +30330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>448</v>
       </c>
       <c r="B475" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C475" t="s">
         <v>284</v>
@@ -30270,7 +30378,7 @@
         <v>6822053.8333000001</v>
       </c>
       <c r="Q475" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="R475">
         <v>0</v>
@@ -30285,12 +30393,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>448</v>
       </c>
       <c r="B476" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C476" t="s">
         <v>455</v>
@@ -30333,7 +30441,7 @@
         <v>2453496</v>
       </c>
       <c r="Q476" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R476">
         <v>1</v>
@@ -30348,28 +30456,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>448</v>
       </c>
       <c r="B477" t="s">
-        <v>885</v>
+        <v>883</v>
+      </c>
+      <c r="C477" t="s">
+        <v>409</v>
       </c>
       <c r="D477" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>yogurt_BFA</v>
       </c>
       <c r="E477" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F477" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G477" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H477" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I477">
         <v>1159</v>
@@ -30392,13 +30503,22 @@
       <c r="O477">
         <v>940576.25</v>
       </c>
-    </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P477">
+        <v>0</v>
+      </c>
+      <c r="R477" s="1">
+        <v>1</v>
+      </c>
+      <c r="S477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>448</v>
       </c>
       <c r="B478" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D478" t="str">
         <f t="shared" si="7"/>
@@ -30435,10 +30555,10 @@
         <v>28.125</v>
       </c>
       <c r="O478" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>448</v>
       </c>
@@ -30501,7 +30621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>448</v>
       </c>
@@ -30534,22 +30654,22 @@
         <v>186940.5</v>
       </c>
       <c r="K480" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L480" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M480" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N480" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O480" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q480" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="R480">
         <v>0</v>
@@ -30565,7 +30685,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:U480"/>
+  <autoFilter ref="A1:U480"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
